--- a/workFiles/PalcoTasks.xlsx
+++ b/workFiles/PalcoTasks.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cread\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC7E35EE-C5CE-48D7-B890-026D6F73C3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59283982-1501-4021-94A3-532F3611FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9BF233D8-43B2-4F49-BDB2-B8CDAACA6923}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9BF233D8-43B2-4F49-BDB2-B8CDAACA6923}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1A" sheetId="1" r:id="rId1"/>
     <sheet name="Bug 1B" sheetId="2" r:id="rId2"/>
+    <sheet name="Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -167,7 +168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -194,12 +195,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,6 +217,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296167</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>29615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48A7C5D-5E4E-E3CD-A602-E40C3DB10CE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6392167" cy="7449590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518C6B5C-2DD6-498F-A115-BF6C5E131CDC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,14 +579,14 @@
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -550,7 +601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
@@ -562,7 +613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -570,10 +621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224B7209-CC7A-4029-A956-7042D00F3D41}">
-  <dimension ref="A2:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,6 +637,7 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
@@ -620,7 +672,21 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6448FA17-8299-4D76-9917-9ED3ADDB8266}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/workFiles/PalcoTasks.xlsx
+++ b/workFiles/PalcoTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cread\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59283982-1501-4021-94A3-532F3611FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F1FDFE-F036-46DC-88BF-43773B34AEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9BF233D8-43B2-4F49-BDB2-B8CDAACA6923}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9BF233D8-43B2-4F49-BDB2-B8CDAACA6923}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1A" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Test Case Title</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>The system processes both submissions and creates two separate payment records, resulting in duplicate payments.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -202,6 +208,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,21 +580,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518C6B5C-2DD6-498F-A115-BF6C5E131CDC}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="82.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="55" style="4" customWidth="1"/>
+    <col min="2" max="2" width="61" style="4" customWidth="1"/>
     <col min="3" max="3" width="58.88671875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="15.109375" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -589,8 +605,11 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -600,9 +619,14 @@
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -612,8 +636,13 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -623,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224B7209-CC7A-4029-A956-7042D00F3D41}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
